--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -102,13 +102,46 @@
     <t>#des</t>
   </si>
   <si>
+    <t>#精炼石</t>
+  </si>
+  <si>
+    <t>#魂环</t>
+  </si>
+  <si>
+    <t>#副本劵</t>
+  </si>
+  <si>
+    <t>#boss卷</t>
+  </si>
+  <si>
+    <t>#等级丹</t>
+  </si>
+  <si>
+    <t>#特戒</t>
+  </si>
+  <si>
+    <t>#特技</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>1-9 精炼石 10-90 魂环碎片 100 特戒自选</t>
+    <t>精炼石，副本劵，Boss卷</t>
+  </si>
+  <si>
+    <t>魂环碎片，副本劵，Boss卷</t>
+  </si>
+  <si>
+    <t>精炼石，等级丹，特戒自选</t>
+  </si>
+  <si>
+    <t>魂环碎片，等级丹，特戒自选</t>
+  </si>
+  <si>
+    <t>魂环碎片，等级丹，神技自选</t>
   </si>
 </sst>
 </file>
@@ -756,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -765,6 +798,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1084,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1103,10 +1137,12 @@
     <col min="12" max="12" width="14.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="14.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="34.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.125" style="2" customWidth="1"/>
     <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="19" max="19" width="9" style="2"/>
+    <col min="20" max="20" width="8.5" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
@@ -1139,7 +1175,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1181,15 +1217,33 @@
       <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="P3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1233,47 +1287,47 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1296,30 +1350,48 @@
         <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="K6" s="1">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="L6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" s="1">
+        <v>4004</v>
+      </c>
+      <c r="N6" s="1">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P6" s="1">
+        <f t="shared" ref="P6:P10" si="0">H6*900</f>
+        <v>90000000</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" ref="R6:R9" si="1">K6*90</f>
+        <v>4500</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" ref="S6:S9" si="2">N6*10</f>
+        <v>500</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D15" si="0">E6+1</f>
+        <f t="shared" ref="D7:D15" si="3">E6+1</f>
         <v>1001</v>
       </c>
       <c r="E7" s="1">
@@ -1329,39 +1401,57 @@
         <v>5</v>
       </c>
       <c r="G7" s="4">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="H7" s="1">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4003</v>
+      </c>
+      <c r="K7" s="1">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K7" s="1">
-        <v>20000</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4</v>
-      </c>
       <c r="M7" s="1">
-        <v>22</v>
+        <v>4004</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>23</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7:Q11" si="4">H7*900</f>
+        <v>9000000</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
       <c r="E8" s="1">
@@ -1374,36 +1464,54 @@
         <v>4002</v>
       </c>
       <c r="H8" s="1">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
       <c r="J8" s="1">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="K8" s="1">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1">
+        <v>4004</v>
+      </c>
+      <c r="N8" s="1">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>180000000</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3001</v>
       </c>
       <c r="E9" s="1">
@@ -1412,40 +1520,58 @@
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="4">
-        <v>4002</v>
+      <c r="G9" s="1">
+        <v>4001</v>
       </c>
       <c r="H9" s="1">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="I9" s="1">
         <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="K9" s="1">
-        <v>40000</v>
+        <v>50</v>
       </c>
       <c r="L9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" s="1">
-        <v>22</v>
+        <v>4004</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>23</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="4"/>
+        <v>18000000</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4001</v>
       </c>
       <c r="E10" s="1">
@@ -1458,16 +1584,16 @@
         <v>4002</v>
       </c>
       <c r="H10" s="1">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="I10" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1">
-        <v>4001</v>
+        <v>4014</v>
       </c>
       <c r="K10" s="1">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1">
         <v>4</v>
@@ -1479,15 +1605,32 @@
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>24</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>270000000</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" ref="T10:T15" si="5">K10*90</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5001</v>
       </c>
       <c r="E11" s="1">
@@ -1496,20 +1639,20 @@
       <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="4">
-        <v>4002</v>
+      <c r="G11" s="1">
+        <v>4001</v>
       </c>
       <c r="H11" s="1">
-        <v>600000</v>
+        <v>30000</v>
       </c>
       <c r="I11" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1">
-        <v>4001</v>
+        <v>4014</v>
       </c>
       <c r="K11" s="1">
-        <v>60000</v>
+        <v>20</v>
       </c>
       <c r="L11" s="1">
         <v>4</v>
@@ -1521,15 +1664,32 @@
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>25</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="4"/>
+        <v>27000000</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6001</v>
       </c>
       <c r="E12" s="1">
@@ -1542,16 +1702,16 @@
         <v>4002</v>
       </c>
       <c r="H12" s="1">
-        <v>700000</v>
+        <v>400000</v>
       </c>
       <c r="I12" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1">
-        <v>4001</v>
+        <v>4014</v>
       </c>
       <c r="K12" s="1">
-        <v>70000</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1">
         <v>4</v>
@@ -1563,15 +1723,32 @@
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>24</v>
+      </c>
+      <c r="P12" s="1">
+        <f>H12*900</f>
+        <v>360000000</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="5"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7001</v>
       </c>
       <c r="E13" s="1">
@@ -1580,20 +1757,20 @@
       <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="4">
-        <v>4002</v>
+      <c r="G13" s="1">
+        <v>4001</v>
       </c>
       <c r="H13" s="1">
-        <v>800000</v>
+        <v>40000</v>
       </c>
       <c r="I13" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1">
-        <v>4001</v>
+        <v>4014</v>
       </c>
       <c r="K13" s="1">
-        <v>80000</v>
+        <v>40</v>
       </c>
       <c r="L13" s="1">
         <v>4</v>
@@ -1605,15 +1782,32 @@
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>25</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>H13*900</f>
+        <v>36000000</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="5"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8001</v>
       </c>
       <c r="E14" s="1">
@@ -1622,20 +1816,20 @@
       <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="4">
-        <v>4002</v>
+      <c r="G14" s="1">
+        <v>4001</v>
       </c>
       <c r="H14" s="1">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="I14" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1">
-        <v>4001</v>
+        <v>4014</v>
       </c>
       <c r="K14" s="1">
-        <v>90000</v>
+        <v>50</v>
       </c>
       <c r="L14" s="1">
         <v>4</v>
@@ -1647,15 +1841,32 @@
         <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>24</v>
+      </c>
+      <c r="P14" s="1">
+        <f>H14*900</f>
+        <v>450000000</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="5"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9001</v>
       </c>
       <c r="E15" s="1">
@@ -1664,35 +1875,79 @@
       <c r="F15" s="1">
         <v>5</v>
       </c>
-      <c r="G15" s="4">
-        <v>4002</v>
+      <c r="G15" s="1">
+        <v>4001</v>
       </c>
       <c r="H15" s="1">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="I15" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1">
-        <v>4001</v>
+        <v>4014</v>
       </c>
       <c r="K15" s="1">
-        <v>100000</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1">
         <v>4</v>
       </c>
       <c r="M15" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1"/>
+        <v>26</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>H15*900</f>
+        <v>45000000</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="16:22">
+      <c r="P16" s="6">
+        <f t="shared" ref="P16:S16" si="6">SUM(P6:P15)</f>
+        <v>1350000000</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="6"/>
+        <v>135000000</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="6"/>
+        <v>18000</v>
+      </c>
+      <c r="S16" s="2">
+        <f>SUM(S6:S15)</f>
+        <v>2000</v>
+      </c>
+      <c r="T16" s="2">
+        <f>SUM(T6:T15)</f>
+        <v>18900</v>
+      </c>
+      <c r="U16" s="1">
+        <v>50</v>
+      </c>
+      <c r="V16" s="1">
+        <v>10</v>
+      </c>
+    </row>
     <row r="17" s="1" customFormat="1" customHeight="1"/>
     <row r="18" s="1" customFormat="1" customHeight="1"/>
     <row r="19" s="1" customFormat="1" customHeight="1"/>
@@ -1810,7 +2065,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:E3 F3 G3:H3 I3 J3:K3 L3 M3:N3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 D5 E5 F5 G5:H5 I5 J5:K5 L5 M5:N5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:N3 E4:N4 E5:N5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>魂环碎片，等级丹，神技自选</t>
+  </si>
+  <si>
+    <t>副本劵，等级丹，特戒自选</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +171,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="等线"/>
@@ -176,6 +185,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -659,146 +675,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1120,8 +1140,8 @@
   <sheetPr/>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1132,8 +1152,8 @@
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="7" width="14.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="14.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="14.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="34.625" style="1" customWidth="1"/>
@@ -1151,9 +1171,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1166,9 +1186,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1178,46 +1198,46 @@
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1242,88 +1262,88 @@
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
@@ -1340,19 +1360,19 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>4002</v>
       </c>
       <c r="H6" s="1">
         <v>100000</v>
       </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="8">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8">
         <v>4003</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="8">
         <v>50</v>
       </c>
       <c r="L6" s="1">
@@ -1391,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D15" si="3">E6+1</f>
+        <f t="shared" ref="D7:D17" si="3">E6+1</f>
         <v>1001</v>
       </c>
       <c r="E7" s="1">
@@ -1400,19 +1420,19 @@
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>4001</v>
       </c>
       <c r="H7" s="1">
         <v>10000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="8">
         <v>9</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="8">
         <v>4003</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="8">
         <v>50</v>
       </c>
       <c r="L7" s="1">
@@ -1460,19 +1480,19 @@
       <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>4002</v>
       </c>
       <c r="H8" s="1">
         <v>200000</v>
       </c>
-      <c r="I8" s="1">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8">
         <v>4003</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="8">
         <v>50</v>
       </c>
       <c r="L8" s="1">
@@ -1526,13 +1546,13 @@
       <c r="H9" s="1">
         <v>20000</v>
       </c>
-      <c r="I9" s="1">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="8">
+        <v>9</v>
+      </c>
+      <c r="J9" s="8">
         <v>4003</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="8">
         <v>50</v>
       </c>
       <c r="L9" s="1">
@@ -1580,19 +1600,19 @@
       <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>4002</v>
       </c>
       <c r="H10" s="1">
         <v>300000</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="8">
         <v>15</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="8">
         <v>4014</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="8">
         <v>10</v>
       </c>
       <c r="L10" s="1">
@@ -1621,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" ref="T10:T15" si="5">K10*90</f>
+        <f t="shared" ref="T10:T17" si="5">K10*90</f>
         <v>900</v>
       </c>
     </row>
@@ -1645,13 +1665,13 @@
       <c r="H11" s="1">
         <v>30000</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="8">
         <v>15</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="8">
         <v>4014</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="8">
         <v>20</v>
       </c>
       <c r="L11" s="1">
@@ -1698,19 +1718,19 @@
       <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>4002</v>
       </c>
       <c r="H12" s="1">
         <v>400000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="8">
         <v>15</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="8">
         <v>4014</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="8">
         <v>30</v>
       </c>
       <c r="L12" s="1">
@@ -1763,13 +1783,13 @@
       <c r="H13" s="1">
         <v>40000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="8">
         <v>15</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="8">
         <v>4014</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="8">
         <v>40</v>
       </c>
       <c r="L13" s="1">
@@ -1822,13 +1842,13 @@
       <c r="H14" s="1">
         <v>500000</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="8">
         <v>15</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="8">
         <v>4014</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="8">
         <v>50</v>
       </c>
       <c r="L14" s="1">
@@ -1881,13 +1901,13 @@
       <c r="H15" s="1">
         <v>50000</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="8">
         <v>15</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="8">
         <v>4014</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="8">
         <v>60</v>
       </c>
       <c r="L15" s="1">
@@ -1920,152 +1940,243 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="16:22">
-      <c r="P16" s="6">
-        <f t="shared" ref="P16:S16" si="6">SUM(P6:P15)</f>
-        <v>1350000000</v>
-      </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="6"/>
-        <v>135000000</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="6"/>
-        <v>18000</v>
-      </c>
-      <c r="S16" s="2">
-        <f>SUM(S6:S15)</f>
-        <v>2000</v>
-      </c>
-      <c r="T16" s="2">
-        <f>SUM(T6:T15)</f>
-        <v>18900</v>
-      </c>
-      <c r="U16" s="1">
-        <v>50</v>
-      </c>
-      <c r="V16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1"/>
-    <row r="18" s="1" customFormat="1" customHeight="1"/>
-    <row r="19" s="1" customFormat="1" customHeight="1"/>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:20">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>10001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4003</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="8">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8">
+        <v>4014</v>
+      </c>
+      <c r="K16" s="8">
+        <v>70</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>22</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <f>H16*900*2</f>
+        <v>36000</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="5"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:20">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>12001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4004</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="8">
+        <v>15</v>
+      </c>
+      <c r="J17" s="8">
+        <v>4014</v>
+      </c>
+      <c r="K17" s="8">
+        <v>80</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>22</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <f>H17*900*3</f>
+        <v>5400</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="5"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
     <row r="20" customHeight="1" spans="8:14">
       <c r="H20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" customHeight="1" spans="8:14">
       <c r="H21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" customHeight="1" spans="8:14">
       <c r="H22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" customHeight="1" spans="8:14">
       <c r="H23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" customHeight="1" spans="8:14">
       <c r="H24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
     <row r="25" customHeight="1" spans="8:14">
       <c r="H25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
     <row r="26" customHeight="1" spans="8:14">
       <c r="H26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" customHeight="1" spans="8:14">
       <c r="H27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" customHeight="1" spans="8:14">
       <c r="H28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" customHeight="1" spans="8:14">
       <c r="H29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" customHeight="1" spans="8:14">
       <c r="H30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" customHeight="1" spans="8:14">
       <c r="H31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" customHeight="1" spans="8:14">
       <c r="H32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
     <row r="33" customHeight="1" spans="8:14">
       <c r="H33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" customHeight="1" spans="8:14">
       <c r="H34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
     <row r="35" customHeight="1" spans="8:14">
       <c r="H35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:N3 E4:N4 E5:N5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:N5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1140,8 +1140,8 @@
   <sheetPr/>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1433,7 +1433,7 @@
         <v>4003</v>
       </c>
       <c r="K7" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -1442,7 +1442,7 @@
         <v>4004</v>
       </c>
       <c r="N7" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>23</v>
@@ -1456,11 +1456,11 @@
       </c>
       <c r="R7" s="1">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>4003</v>
       </c>
       <c r="K8" s="8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L8" s="1">
         <v>5</v>
@@ -1502,7 +1502,7 @@
         <v>4004</v>
       </c>
       <c r="N8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>22</v>
@@ -1516,11 +1516,11 @@
       </c>
       <c r="R8" s="1">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>4003</v>
       </c>
       <c r="K9" s="8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1">
         <v>5</v>
@@ -1562,7 +1562,7 @@
         <v>4004</v>
       </c>
       <c r="N9" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>23</v>
@@ -1576,11 +1576,11 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>7200</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>魂环碎片，等级丹，神技自选</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>副本劵，等级丹，特戒自选</t>
@@ -1138,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1364,7 +1367,7 @@
         <v>4002</v>
       </c>
       <c r="H6" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I6" s="8">
         <v>9</v>
@@ -1373,7 +1376,7 @@
         <v>4003</v>
       </c>
       <c r="K6" s="8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
@@ -1382,25 +1385,25 @@
         <v>4004</v>
       </c>
       <c r="N6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ref="P6:P10" si="0">H6*900</f>
-        <v>90000000</v>
+        <v>180000000</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" ref="R6:R9" si="1">K6*90</f>
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" ref="S6:S9" si="2">N6*10</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1424,7 +1427,7 @@
         <v>4001</v>
       </c>
       <c r="H7" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I7" s="8">
         <v>9</v>
@@ -1433,7 +1436,7 @@
         <v>4003</v>
       </c>
       <c r="K7" s="8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -1442,7 +1445,7 @@
         <v>4004</v>
       </c>
       <c r="N7" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>23</v>
@@ -1452,15 +1455,15 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" ref="Q7:Q11" si="4">H7*900</f>
-        <v>9000000</v>
+        <v>18000000</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="1"/>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1484,7 +1487,7 @@
         <v>4002</v>
       </c>
       <c r="H8" s="1">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="I8" s="8">
         <v>9</v>
@@ -1493,7 +1496,7 @@
         <v>4003</v>
       </c>
       <c r="K8" s="8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1">
         <v>5</v>
@@ -1502,25 +1505,25 @@
         <v>4004</v>
       </c>
       <c r="N8" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="0"/>
-        <v>180000000</v>
+        <v>360000000</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="1"/>
-        <v>6300</v>
+        <v>8100</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1544,7 +1547,7 @@
         <v>4001</v>
       </c>
       <c r="H9" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="I9" s="8">
         <v>9</v>
@@ -1553,7 +1556,7 @@
         <v>4003</v>
       </c>
       <c r="K9" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L9" s="1">
         <v>5</v>
@@ -1562,7 +1565,7 @@
         <v>4004</v>
       </c>
       <c r="N9" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>23</v>
@@ -1572,21 +1575,21 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="4"/>
-        <v>18000000</v>
+        <v>36000000</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:20">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:21">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>4002</v>
       </c>
       <c r="H10" s="1">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="I10" s="8">
         <v>15</v>
@@ -1629,7 +1632,7 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" si="0"/>
-        <v>270000000</v>
+        <v>540000000</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -1644,8 +1647,11 @@
         <f t="shared" ref="T10:T17" si="5">K10*90</f>
         <v>900</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:21">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>4001</v>
       </c>
       <c r="H11" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="I11" s="8">
         <v>15</v>
@@ -1691,7 +1697,7 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="4"/>
-        <v>27000000</v>
+        <v>54000000</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -1703,8 +1709,11 @@
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:21">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>4002</v>
       </c>
       <c r="H12" s="1">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="I12" s="8">
         <v>15</v>
@@ -1747,7 +1756,7 @@
       </c>
       <c r="P12" s="1">
         <f>H12*900</f>
-        <v>360000000</v>
+        <v>720000000</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -1762,8 +1771,11 @@
         <f t="shared" si="5"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:21">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>4001</v>
       </c>
       <c r="H13" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="I13" s="8">
         <v>15</v>
@@ -1809,7 +1821,7 @@
       </c>
       <c r="Q13" s="1">
         <f>H13*900</f>
-        <v>36000000</v>
+        <v>72000000</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -1821,8 +1833,11 @@
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:21">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1840,7 +1855,7 @@
         <v>4001</v>
       </c>
       <c r="H14" s="1">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="I14" s="8">
         <v>15</v>
@@ -1865,7 +1880,7 @@
       </c>
       <c r="P14" s="1">
         <f>H14*900</f>
-        <v>450000000</v>
+        <v>900000000</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -1880,8 +1895,11 @@
         <f t="shared" si="5"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:22">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>4001</v>
       </c>
       <c r="H15" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I15" s="8">
         <v>15</v>
@@ -1927,7 +1945,7 @@
       </c>
       <c r="Q15" s="1">
         <f>H15*900</f>
-        <v>45000000</v>
+        <v>90000000</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -1939,118 +1957,22 @@
         <f t="shared" si="5"/>
         <v>5400</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:20">
-      <c r="C16" s="1">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>10001</v>
-      </c>
-      <c r="E16" s="1">
-        <v>12000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1">
-        <v>4003</v>
-      </c>
-      <c r="H16" s="1">
-        <v>20</v>
-      </c>
-      <c r="I16" s="8">
-        <v>15</v>
-      </c>
-      <c r="J16" s="8">
-        <v>4014</v>
-      </c>
-      <c r="K16" s="8">
-        <v>70</v>
-      </c>
-      <c r="L16" s="1">
-        <v>4</v>
-      </c>
-      <c r="M16" s="1">
-        <v>22</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <f>H16*900*2</f>
-        <v>36000</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <f t="shared" si="5"/>
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:20">
-      <c r="C17" s="1">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>12001</v>
-      </c>
-      <c r="E17" s="1">
-        <v>15000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4004</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="8">
-        <v>15</v>
-      </c>
-      <c r="J17" s="8">
-        <v>4014</v>
-      </c>
-      <c r="K17" s="8">
-        <v>80</v>
-      </c>
-      <c r="L17" s="1">
-        <v>4</v>
-      </c>
-      <c r="M17" s="1">
-        <v>22</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <f>H17*900*3</f>
-        <v>5400</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" si="5"/>
-        <v>7200</v>
-      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="9:11">
       <c r="I18" s="8"/>
@@ -2062,75 +1984,169 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" customHeight="1" spans="8:14">
-      <c r="H20" s="1"/>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" customHeight="1" spans="8:14">
-      <c r="H21" s="1"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" customHeight="1" spans="8:14">
-      <c r="H22" s="1"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" customHeight="1" spans="8:14">
-      <c r="H23" s="1"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" customHeight="1" spans="8:14">
-      <c r="H24" s="1"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" customHeight="1" spans="8:14">
-      <c r="H25" s="1"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" customHeight="1" spans="8:14">
-      <c r="H26" s="1"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" customHeight="1" spans="8:14">
-      <c r="H27" s="1"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" customHeight="1" spans="8:14">
-      <c r="H28" s="1"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1">
+        <f>E15+1</f>
+        <v>10001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4003</v>
+      </c>
+      <c r="H26" s="1">
+        <v>20</v>
+      </c>
+      <c r="I26" s="8">
+        <v>15</v>
+      </c>
+      <c r="J26" s="8">
+        <v>4014</v>
+      </c>
+      <c r="K26" s="8">
+        <v>70</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>22</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <f>H26*900*2</f>
+        <v>36000</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <f>K26*90</f>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <f>E26+1</f>
+        <v>12001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4004</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="8">
+        <v>15</v>
+      </c>
+      <c r="J27" s="8">
+        <v>4014</v>
+      </c>
+      <c r="K27" s="8">
+        <v>80</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4</v>
+      </c>
+      <c r="M27" s="1">
+        <v>22</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <f>H27*900*3</f>
+        <v>5400</v>
+      </c>
+      <c r="T27" s="1">
+        <f>K27*90</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" customHeight="1" spans="8:14">
-      <c r="H29" s="1"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
     </row>
     <row r="30" customHeight="1" spans="8:14">
       <c r="H30" s="1"/>
@@ -2173,6 +2189,76 @@
       <c r="K35" s="8"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
+    </row>
+    <row r="36" customHeight="1" spans="8:14">
+      <c r="H36" s="1"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" customHeight="1" spans="8:14">
+      <c r="H37" s="1"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" customHeight="1" spans="8:14">
+      <c r="H38" s="1"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" customHeight="1" spans="8:14">
+      <c r="H39" s="1"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" customHeight="1" spans="8:14">
+      <c r="H40" s="1"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" customHeight="1" spans="8:14">
+      <c r="H41" s="1"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" customHeight="1" spans="8:14">
+      <c r="H42" s="1"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" customHeight="1" spans="8:14">
+      <c r="H43" s="1"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" customHeight="1" spans="8:14">
+      <c r="H44" s="1"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" customHeight="1" spans="8:14">
+      <c r="H45" s="1"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -343,12 +343,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1746,13 +1746,13 @@
         <v>4</v>
       </c>
       <c r="M12" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P12" s="1">
         <f>H12*900</f>
@@ -1932,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="M15" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -144,10 +144,10 @@
     <t>魂环碎片，等级丹，神技自选</t>
   </si>
   <si>
+    <t>副本劵，等级丹，特戒自选</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>副本劵，等级丹，特戒自选</t>
   </si>
 </sst>
 </file>
@@ -343,12 +343,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2014,13 +2014,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:20">
       <c r="C26" s="1">
         <v>11</v>
       </c>
@@ -2038,7 +2032,7 @@
         <v>4003</v>
       </c>
       <c r="H26" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I26" s="8">
         <v>15</v>
@@ -2059,14 +2053,14 @@
         <v>1</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
       <c r="R26" s="1">
         <f>H26*900*2</f>
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -2078,10 +2072,10 @@
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>12</v>
@@ -2121,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2023,7 +2023,7 @@
         <v>10001</v>
       </c>
       <c r="E26" s="1">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F26" s="1">
         <v>9</v>
@@ -2082,10 +2082,10 @@
       </c>
       <c r="D27" s="1">
         <f>E26+1</f>
-        <v>12001</v>
+        <v>15001</v>
       </c>
       <c r="E27" s="1">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2032,7 +2032,7 @@
         <v>4003</v>
       </c>
       <c r="H26" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I26" s="8">
         <v>15</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="R26" s="1">
         <f>H26*900*2</f>
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>4004</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="8">
         <v>15</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="S27" s="1">
         <f>H27*900*3</f>
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="T27" s="1">
         <f>K27*90</f>

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -343,12 +343,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1964,10 +1964,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="9:11">
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:20">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <f>E15+1</f>
+        <v>10001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4003</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="8">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8">
+        <v>4014</v>
+      </c>
+      <c r="K16" s="8">
+        <v>70</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>22</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <f>H16*900*2</f>
+        <v>9000</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <f>K16*90</f>
+        <v>6300</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="9:11">
       <c r="I17" s="8"/>
@@ -2014,62 +2065,6 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:20">
-      <c r="C26" s="1">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1">
-        <f>E15+1</f>
-        <v>10001</v>
-      </c>
-      <c r="E26" s="1">
-        <v>15000</v>
-      </c>
-      <c r="F26" s="1">
-        <v>9</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4003</v>
-      </c>
-      <c r="H26" s="1">
-        <v>5</v>
-      </c>
-      <c r="I26" s="8">
-        <v>15</v>
-      </c>
-      <c r="J26" s="8">
-        <v>4014</v>
-      </c>
-      <c r="K26" s="8">
-        <v>70</v>
-      </c>
-      <c r="L26" s="1">
-        <v>4</v>
-      </c>
-      <c r="M26" s="1">
-        <v>22</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <f>H26*900*2</f>
-        <v>9000</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <f>K26*90</f>
-        <v>6300</v>
-      </c>
-    </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A27" s="1" t="s">
         <v>28</v>
@@ -2081,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="1">
-        <f>E26+1</f>
+        <f>E16+1</f>
         <v>15001</v>
       </c>
       <c r="E27" s="1">

--- a/Excel/BabelConfig.xlsx
+++ b/Excel/BabelConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -343,12 +343,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1969,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <f>E15+1</f>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="E16" s="1">
@@ -2016,14 +2016,65 @@
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <f>K16*90</f>
+        <f t="shared" si="5"/>
         <v>6300</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="9:11">
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:20">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>15001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4004</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>15</v>
+      </c>
+      <c r="J17" s="8">
+        <v>4014</v>
+      </c>
+      <c r="K17" s="8">
+        <v>70</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>22</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <f>H17*900*3</f>
+        <v>2700</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="5"/>
+        <v>6300</v>
+      </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="9:11">
       <c r="I18" s="8"/>
